--- a/Unity-ResLoadFrame-Learning/Unity-ResLoadFrame/Data/Excel/GBuff.xlsx
+++ b/Unity-ResLoadFrame-Learning/Unity-ResLoadFrame/Data/Excel/GBuff.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -30,6 +30,9 @@
     <t>Buff类型</t>
   </si>
   <si>
+    <t>测试List</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -39,12 +42,15 @@
     <t>Assets/GameData/Prefab0</t>
   </si>
   <si>
-    <t>2.9211</t>
+    <t>4.225839</t>
   </si>
   <si>
     <t>Ranshao</t>
   </si>
   <si>
+    <t>TestA0;TestB0</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -54,12 +60,15 @@
     <t>Assets/GameData/Prefab1</t>
   </si>
   <si>
-    <t>0.8188334</t>
+    <t>2.206836</t>
   </si>
   <si>
     <t>Bingdong</t>
   </si>
   <si>
+    <t>TestA1;TestB1</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -69,7 +78,13 @@
     <t>Assets/GameData/Prefab2</t>
   </si>
   <si>
-    <t>2.779605</t>
+    <t>1.782929</t>
+  </si>
+  <si>
+    <t>Du</t>
+  </si>
+  <si>
+    <t>TestA2;TestB2</t>
   </si>
   <si>
     <t>3</t>
@@ -81,10 +96,13 @@
     <t>Assets/GameData/Prefab3</t>
   </si>
   <si>
-    <t>3.690301</t>
-  </si>
-  <si>
-    <t>Du</t>
+    <t>2.823984</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>TestA3;TestB3</t>
   </si>
   <si>
     <t>4</t>
@@ -96,7 +114,10 @@
     <t>Assets/GameData/Prefab4</t>
   </si>
   <si>
-    <t>3.220233</t>
+    <t>4.236364</t>
+  </si>
+  <si>
+    <t>TestA4;TestB4</t>
   </si>
   <si>
     <t>5</t>
@@ -108,7 +129,10 @@
     <t>Assets/GameData/Prefab5</t>
   </si>
   <si>
-    <t>1.044204</t>
+    <t>4.035848</t>
+  </si>
+  <si>
+    <t>TestA5;TestB5</t>
   </si>
   <si>
     <t>6</t>
@@ -120,7 +144,10 @@
     <t>Assets/GameData/Prefab6</t>
   </si>
   <si>
-    <t>1.499641</t>
+    <t>1.220203</t>
+  </si>
+  <si>
+    <t>TestA6;TestB6</t>
   </si>
   <si>
     <t>7</t>
@@ -132,7 +159,10 @@
     <t>Assets/GameData/Prefab7</t>
   </si>
   <si>
-    <t>3.58569</t>
+    <t>3.898578</t>
+  </si>
+  <si>
+    <t>TestA7;TestB7</t>
   </si>
   <si>
     <t>8</t>
@@ -144,7 +174,10 @@
     <t>Assets/GameData/Prefab8</t>
   </si>
   <si>
-    <t>4.010843</t>
+    <t>2.858022</t>
+  </si>
+  <si>
+    <t>TestA8;TestB8</t>
   </si>
   <si>
     <t>9</t>
@@ -156,22 +189,25 @@
     <t>Assets/GameData/Prefab9</t>
   </si>
   <si>
-    <t>2.364455</t>
-  </si>
-  <si>
-    <t>0.7290978</t>
-  </si>
-  <si>
-    <t>2.936987</t>
-  </si>
-  <si>
-    <t>3.01299</t>
-  </si>
-  <si>
-    <t>3.24906</t>
-  </si>
-  <si>
-    <t>2.879087</t>
+    <t>3.112343</t>
+  </si>
+  <si>
+    <t>TestA9;TestB9</t>
+  </si>
+  <si>
+    <t>1.954747</t>
+  </si>
+  <si>
+    <t>4.042013</t>
+  </si>
+  <si>
+    <t>1.8251</t>
+  </si>
+  <si>
+    <t>4.062351</t>
+  </si>
+  <si>
+    <t>2.02739</t>
   </si>
 </sst>
 </file>
@@ -217,7 +253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -225,9 +261,10 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.4488438197545" customWidth="1"/>
+    <col min="3" max="3" width="22.6585981580946" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.4226879543728" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -246,175 +283,208 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -424,7 +494,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,9 +502,10 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.4488438197545" customWidth="1"/>
+    <col min="3" max="3" width="22.6585981580946" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.4226879543728" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -453,90 +524,108 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>23</v>
+      <c r="F3" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Unity-ResLoadFrame-Learning/Unity-ResLoadFrame/Data/Excel/GBuff.xlsx
+++ b/Unity-ResLoadFrame-Learning/Unity-ResLoadFrame/Data/Excel/GBuff.xlsx
@@ -5,22 +5,63 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="BuffBase&amp;所有Buff配置表" sheetId="1" r:id="rId1"/>
-    <sheet name="BuffBase&amp;怪物Buff配置表" sheetId="2" r:id="rId3"/>
+    <sheet name="Bufft&amp;所有Buff的测试list测试" sheetId="1" r:id="rId1"/>
+    <sheet name="BuffBase&amp;所有Buff配置表" sheetId="2" r:id="rId3"/>
+    <sheet name="BuffBase&amp;怪物Buff配置表" sheetId="3" r:id="rId4"/>
+    <sheet name="Bufft&amp;怪物Buff的测试list测试" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>TestID</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>TestName0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TestName1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>路径</t>
   </si>
   <si>
@@ -33,181 +74,151 @@
     <t>测试List</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Name0</t>
   </si>
   <si>
     <t>Assets/GameData/Prefab0</t>
   </si>
   <si>
-    <t>4.225839</t>
+    <t>1.757968</t>
+  </si>
+  <si>
+    <t>Bingdong</t>
+  </si>
+  <si>
+    <t>TestA0;TestB0</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab1</t>
+  </si>
+  <si>
+    <t>2.473275</t>
+  </si>
+  <si>
+    <t>TestA1;TestB1</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab2</t>
+  </si>
+  <si>
+    <t>1.377177</t>
+  </si>
+  <si>
+    <t>TestA2;TestB2</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab3</t>
+  </si>
+  <si>
+    <t>2.678806</t>
+  </si>
+  <si>
+    <t>TestA3;TestB3</t>
+  </si>
+  <si>
+    <t>Name4</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab4</t>
+  </si>
+  <si>
+    <t>3.395977</t>
   </si>
   <si>
     <t>Ranshao</t>
   </si>
   <si>
-    <t>TestA0;TestB0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Name1</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab1</t>
-  </si>
-  <si>
-    <t>2.206836</t>
-  </si>
-  <si>
-    <t>Bingdong</t>
-  </si>
-  <si>
-    <t>TestA1;TestB1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Name2</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab2</t>
-  </si>
-  <si>
-    <t>1.782929</t>
+    <t>TestA4;TestB4</t>
+  </si>
+  <si>
+    <t>Name5</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab5</t>
+  </si>
+  <si>
+    <t>4.282279</t>
   </si>
   <si>
     <t>Du</t>
   </si>
   <si>
-    <t>TestA2;TestB2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Name3</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab3</t>
-  </si>
-  <si>
-    <t>2.823984</t>
+    <t>TestA5;TestB5</t>
+  </si>
+  <si>
+    <t>Name6</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab6</t>
+  </si>
+  <si>
+    <t>4.260557</t>
+  </si>
+  <si>
+    <t>TestA6;TestB6</t>
+  </si>
+  <si>
+    <t>Name7</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab7</t>
+  </si>
+  <si>
+    <t>2.454738</t>
+  </si>
+  <si>
+    <t>TestA7;TestB7</t>
+  </si>
+  <si>
+    <t>Name8</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab8</t>
+  </si>
+  <si>
+    <t>1.610964</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>TestA3;TestB3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Name4</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab4</t>
-  </si>
-  <si>
-    <t>4.236364</t>
-  </si>
-  <si>
-    <t>TestA4;TestB4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Name5</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab5</t>
-  </si>
-  <si>
-    <t>4.035848</t>
-  </si>
-  <si>
-    <t>TestA5;TestB5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Name6</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab6</t>
-  </si>
-  <si>
-    <t>1.220203</t>
-  </si>
-  <si>
-    <t>TestA6;TestB6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Name7</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab7</t>
-  </si>
-  <si>
-    <t>3.898578</t>
-  </si>
-  <si>
-    <t>TestA7;TestB7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Name8</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab8</t>
-  </si>
-  <si>
-    <t>2.858022</t>
-  </si>
-  <si>
     <t>TestA8;TestB8</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Name9</t>
   </si>
   <si>
     <t>Assets/GameData/Prefab9</t>
   </si>
   <si>
-    <t>3.112343</t>
+    <t>4.212016</t>
   </si>
   <si>
     <t>TestA9;TestB9</t>
   </si>
   <si>
-    <t>1.954747</t>
-  </si>
-  <si>
-    <t>4.042013</t>
-  </si>
-  <si>
-    <t>1.8251</t>
-  </si>
-  <si>
-    <t>4.062351</t>
-  </si>
-  <si>
-    <t>2.02739</t>
+    <t>0.7741246</t>
+  </si>
+  <si>
+    <t>3.074667</t>
+  </si>
+  <si>
+    <t>3.796892</t>
+  </si>
+  <si>
+    <t>4.170864</t>
+  </si>
+  <si>
+    <t>4.140477</t>
   </si>
 </sst>
 </file>
@@ -253,6 +264,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.0047005547418" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -272,219 +455,219 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -492,7 +675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -513,119 +696,181 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.0047005547418" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Unity-ResLoadFrame-Learning/Unity-ResLoadFrame/Data/Excel/GBuff.xlsx
+++ b/Unity-ResLoadFrame-Learning/Unity-ResLoadFrame/Data/Excel/GBuff.xlsx
@@ -6,14 +6,16 @@
   </bookViews>
   <sheets>
     <sheet name="所有Buff配置表" sheetId="1" r:id="rId1"/>
-    <sheet name="怪物Buff配置表" sheetId="2" r:id="rId3"/>
+    <sheet name="所有Buff的测试list测试" sheetId="2" r:id="rId3"/>
+    <sheet name="怪物Buff的测试list测试" sheetId="3" r:id="rId4"/>
+    <sheet name="怪物Buff配置表" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -42,172 +44,169 @@
     <t>Assets/GameData/Prefab0</t>
   </si>
   <si>
-    <t>3.079933</t>
+    <t>2.21928</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>001;002</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab1</t>
+  </si>
+  <si>
+    <t>0.869288</t>
   </si>
   <si>
     <t>Bingdong</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab2</t>
+  </si>
+  <si>
+    <t>2.391962</t>
+  </si>
+  <si>
+    <t>Du</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab3</t>
+  </si>
+  <si>
+    <t>3.81866</t>
+  </si>
+  <si>
+    <t>Ranshao</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Name4</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab4</t>
+  </si>
+  <si>
+    <t>2.993646</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Name5</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab5</t>
+  </si>
+  <si>
+    <t>0.7895579</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Name6</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab6</t>
+  </si>
+  <si>
+    <t>3.996777</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Name7</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab7</t>
+  </si>
+  <si>
+    <t>2.406897</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Name8</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab8</t>
+  </si>
+  <si>
+    <t>1.085767</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Name9</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefab9</t>
+  </si>
+  <si>
+    <t>1.987761</t>
+  </si>
+  <si>
+    <t>TestID</t>
+  </si>
+  <si>
+    <t>TestName0</t>
+  </si>
+  <si>
+    <t>TestName1</t>
+  </si>
+  <si>
+    <t>3.389471</t>
+  </si>
+  <si>
     <t>TestA0;TestB0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Name1</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab1</t>
-  </si>
-  <si>
-    <t>0.6336498</t>
-  </si>
-  <si>
-    <t>Du</t>
+    <t>3.455537</t>
   </si>
   <si>
     <t>TestA1;TestB1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Name2</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab2</t>
-  </si>
-  <si>
-    <t>0.6134973</t>
-  </si>
-  <si>
-    <t>Ranshao</t>
+    <t>2.920343</t>
   </si>
   <si>
     <t>TestA2;TestB2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Name3</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab3</t>
-  </si>
-  <si>
-    <t>1.462006</t>
+    <t>2.82221</t>
   </si>
   <si>
     <t>TestA3;TestB3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Name4</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab4</t>
-  </si>
-  <si>
-    <t>3.996867</t>
+    <t>1.355017</t>
   </si>
   <si>
     <t>TestA4;TestB4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Name5</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab5</t>
-  </si>
-  <si>
-    <t>3.934631</t>
-  </si>
-  <si>
-    <t>TestA5;TestB5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Name6</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab6</t>
-  </si>
-  <si>
-    <t>0.5233378</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>TestA6;TestB6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Name7</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab7</t>
-  </si>
-  <si>
-    <t>1.953664</t>
-  </si>
-  <si>
-    <t>TestA7;TestB7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Name8</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab8</t>
-  </si>
-  <si>
-    <t>0.7818737</t>
-  </si>
-  <si>
-    <t>TestA8;TestB8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Name9</t>
-  </si>
-  <si>
-    <t>Assets/GameData/Prefab9</t>
-  </si>
-  <si>
-    <t>2.216988</t>
-  </si>
-  <si>
-    <t>TestA9;TestB9</t>
-  </si>
-  <si>
-    <t>1.664234</t>
-  </si>
-  <si>
-    <t>0.6999636</t>
-  </si>
-  <si>
-    <t>2.933026</t>
-  </si>
-  <si>
-    <t>2.21554</t>
-  </si>
-  <si>
-    <t>1.260606</t>
   </si>
 </sst>
 </file>
@@ -261,10 +260,10 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.6585981580946" customWidth="1"/>
+    <col min="3" max="3" width="23.4488438197545" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.4226879543728" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -324,167 +323,167 @@
         <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -493,6 +492,185 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.4334062848772" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.4334062848772" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -502,10 +680,10 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.6585981580946" customWidth="1"/>
+    <col min="3" max="3" width="23.4488438197545" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.4226879543728" customWidth="1"/>
+    <col min="6" max="6" width="12.9204777308873" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +717,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -559,73 +737,73 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
